--- a/zoyAdminAngular/src/assets/sample_files/PG_properties_sample_file.xlsx
+++ b/zoyAdminAngular/src/assets/sample_files/PG_properties_sample_file.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28521"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bulk-upload-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_8336292F024F7602ADCBAE6509902CF5B9A85CDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EEEF1AB-E15C-4C82-9DAD-36FFD3793362}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Floor Name</t>
   </si>
@@ -52,7 +53,7 @@
     <t>Room Area in Sqft</t>
   </si>
   <si>
-    <t>Daily Rent</t>
+    <t>Available Bed Numbers</t>
   </si>
   <si>
     <t>Monthly Rent</t>
@@ -61,9 +62,6 @@
     <t>Room Amenities</t>
   </si>
   <si>
-    <t>Occupied Bed Numbers</t>
-  </si>
-  <si>
     <t>Remarks About Room</t>
   </si>
   <si>
@@ -85,9 +83,6 @@
     <t>Mandatory</t>
   </si>
   <si>
-    <t xml:space="preserve">Mandatory for Occupaid Beds </t>
-  </si>
-  <si>
     <t>Optional - 300 Cherecters</t>
   </si>
   <si>
@@ -109,9 +104,6 @@
     <t>Air-conditioning,Food-Breakfast,Food-Lunch,Food-Dinner,TV,Parking,Wi-Fi</t>
   </si>
   <si>
-    <t>101-A</t>
-  </si>
-  <si>
     <t>Spacious room</t>
   </si>
   <si>
@@ -148,9 +140,6 @@
     <t>201-B,201-C,201-D</t>
   </si>
   <si>
-    <t>201-A</t>
-  </si>
-  <si>
     <t>Room 202</t>
   </si>
   <si>
@@ -161,16 +150,13 @@
   </si>
   <si>
     <t>203-A</t>
-  </si>
-  <si>
-    <t>Available Bed Numbers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,30 +513,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.26953125" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="69.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="69.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -567,259 +551,219 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="E3" s="6">
         <v>1000</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6">
+        <v>8000</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6">
-        <v>500</v>
-      </c>
-      <c r="H3" s="6">
-        <v>8000</v>
-      </c>
-      <c r="I3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E4" s="6">
         <v>850</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="6">
+        <v>8000</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="G4" s="6">
-        <v>500</v>
-      </c>
-      <c r="H4" s="6">
-        <v>8000</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="E5" s="6">
         <v>500</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G5" s="6">
-        <v>500</v>
-      </c>
-      <c r="H5" s="6">
         <v>8000</v>
       </c>
+      <c r="H5" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6">
         <v>1000</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G6" s="6">
-        <v>500</v>
-      </c>
-      <c r="H6" s="6">
         <v>8000</v>
       </c>
+      <c r="H6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="6">
         <v>850</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G7" s="6">
-        <v>500</v>
-      </c>
-      <c r="H7" s="6">
         <v>8000</v>
       </c>
+      <c r="H7" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" s="6">
         <v>500</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G8" s="6">
-        <v>500</v>
-      </c>
-      <c r="H8" s="6">
         <v>8000</v>
       </c>
+      <c r="H8" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/zoyAdminAngular/src/assets/sample_files/PG_properties_sample_file.xlsx
+++ b/zoyAdminAngular/src/assets/sample_files/PG_properties_sample_file.xlsx
@@ -1,35 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28521"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bulk-upload-files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_8336292F024F7602ADCBAE6509902CF5B9A85CDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EEEF1AB-E15C-4C82-9DAD-36FFD3793362}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -38,139 +22,184 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
-    <t>Floor Name</t>
-  </si>
-  <si>
-    <t>Room Name</t>
-  </si>
-  <si>
-    <t>Room Type</t>
-  </si>
-  <si>
-    <t>Share Type</t>
-  </si>
-  <si>
-    <t>Room Area in Sqft</t>
-  </si>
-  <si>
-    <t>Available Bed Numbers</t>
-  </si>
-  <si>
-    <t>Monthly Rent</t>
-  </si>
-  <si>
-    <t>Room Amenities</t>
-  </si>
-  <si>
-    <t>Remarks About Room</t>
-  </si>
-  <si>
-    <t>Mandatory- 20 Charecters</t>
-  </si>
-  <si>
-    <t>Optional - Small, Large, Medium</t>
-  </si>
-  <si>
-    <t>Optional - 4 digit Number</t>
-  </si>
-  <si>
-    <t>Auto generate - Room Name -A Format</t>
-  </si>
-  <si>
-    <t>Mandatory - Amount</t>
-  </si>
-  <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
-    <t>Optional - 300 Cherecters</t>
-  </si>
-  <si>
-    <t>First Floor</t>
-  </si>
-  <si>
-    <t>Room 101</t>
-  </si>
-  <si>
-    <t>Large Room</t>
-  </si>
-  <si>
-    <t>Four share</t>
-  </si>
-  <si>
-    <t>101-B,101-C,101-D</t>
-  </si>
-  <si>
-    <t>Air-conditioning,Food-Breakfast,Food-Lunch,Food-Dinner,TV,Parking,Wi-Fi</t>
-  </si>
-  <si>
-    <t>Spacious room</t>
-  </si>
-  <si>
-    <t>Room 102</t>
-  </si>
-  <si>
-    <t>Medium Room</t>
-  </si>
-  <si>
-    <t>Three share</t>
-  </si>
-  <si>
-    <t>102-A,102-B,102-C</t>
-  </si>
-  <si>
-    <t>Room 103</t>
-  </si>
-  <si>
-    <t>Small Room</t>
-  </si>
-  <si>
-    <t>Single share</t>
-  </si>
-  <si>
-    <t>103-A</t>
-  </si>
-  <si>
-    <t>Secound Floor</t>
-  </si>
-  <si>
-    <t>Room 201</t>
-  </si>
-  <si>
-    <t>201-B,201-C,201-D</t>
-  </si>
-  <si>
-    <t>Room 202</t>
-  </si>
-  <si>
-    <t>202-A,202-B,202-C</t>
-  </si>
-  <si>
-    <t>Room 203</t>
-  </si>
-  <si>
-    <t>203-A</t>
+    <t xml:space="preserve">Floor Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room Area in Sqft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available Bed Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly Rent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room Amenities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks About Room</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mandatory- 20 </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Character</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional - Small, Large, Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional - 4 digit Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto generate - Room Name -A Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandatory - Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional - 300 Character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101-B,101-C,101-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air-conditioning,Food-Breakfast,Food-Lunch,Food-Dinner,TV,Parking,Wi-Fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spacious room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room 102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102-A,102-B,102-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room 103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room 201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201-B,201-C,201-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room 202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202-A,202-B,202-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room 203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203-A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -182,231 +211,251 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.5999"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFAFABAB"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFBDD7EE"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -414,33 +463,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -453,13 +493,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -469,15 +503,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -485,7 +517,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -493,106 +524,102 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="69.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="5" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -605,13 +632,13 @@
       <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="6" t="n">
         <v>1000</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="6" t="n">
         <v>8000</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -621,7 +648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -634,13 +661,13 @@
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="6" t="n">
         <v>850</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="6" t="n">
         <v>8000</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -650,7 +677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -663,13 +690,13 @@
       <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="6" t="n">
         <v>500</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="6" t="n">
         <v>8000</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -679,7 +706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -692,13 +719,13 @@
       <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="6" t="n">
         <v>1000</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="6" t="n">
         <v>8000</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -708,7 +735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -721,13 +748,13 @@
       <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="6" t="n">
         <v>850</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="6" t="n">
         <v>8000</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -737,7 +764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -750,13 +777,13 @@
       <c r="D8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="6" t="n">
         <v>500</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="6" t="n">
         <v>8000</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -767,7 +794,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>